--- a/data/norm.cause-of-death-2010.xlsx
+++ b/data/norm.cause-of-death-2010.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U21"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,90 +440,85 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>1-4</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>1-4</t>
+          <t>5-9</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>5-9</t>
+          <t>15-19</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>15-19</t>
+          <t>20-24</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>20-24</t>
+          <t>25-29</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>25-29</t>
+          <t>30-34</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>30-34</t>
+          <t>35-39</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>35-39</t>
+          <t>40-44</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>40-44</t>
+          <t>45-49</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>45-49</t>
+          <t>50-54</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>50-54</t>
+          <t>55-59</t>
         </is>
       </c>
       <c r="O1" t="inlineStr">
         <is>
-          <t>55-59</t>
+          <t>60-64</t>
         </is>
       </c>
       <c r="P1" t="inlineStr">
         <is>
-          <t>60-64</t>
+          <t>65-69</t>
         </is>
       </c>
       <c r="Q1" t="inlineStr">
         <is>
-          <t>65-69</t>
+          <t>70-74</t>
         </is>
       </c>
       <c r="R1" t="inlineStr">
         <is>
-          <t>70-74</t>
+          <t>75-79</t>
         </is>
       </c>
       <c r="S1" t="inlineStr">
         <is>
-          <t>75-79</t>
+          <t>80-84</t>
         </is>
       </c>
       <c r="T1" t="inlineStr">
-        <is>
-          <t>80-84</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
         <is>
           <t>85-120</t>
         </is>
@@ -546,57 +541,54 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="E2" t="n">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="F2" t="n">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="G2" t="n">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I2" t="n">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="J2" t="n">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="K2" t="n">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="L2" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="M2" t="n">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="N2" t="n">
-        <v>188</v>
+        <v>253</v>
       </c>
       <c r="O2" t="n">
-        <v>253</v>
+        <v>267</v>
       </c>
       <c r="P2" t="n">
-        <v>267</v>
+        <v>225</v>
       </c>
       <c r="Q2" t="n">
-        <v>225</v>
+        <v>264</v>
       </c>
       <c r="R2" t="n">
-        <v>264</v>
+        <v>192</v>
       </c>
       <c r="S2" t="n">
-        <v>192</v>
+        <v>149</v>
       </c>
       <c r="T2" t="n">
-        <v>149</v>
-      </c>
-      <c r="U2" t="n">
         <v>169</v>
       </c>
     </row>
@@ -617,57 +609,54 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="E3" t="n">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="F3" t="n">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="G3" t="n">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="H3" t="n">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="I3" t="n">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="J3" t="n">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="K3" t="n">
-        <v>106</v>
+        <v>176</v>
       </c>
       <c r="L3" t="n">
-        <v>176</v>
+        <v>433</v>
       </c>
       <c r="M3" t="n">
-        <v>433</v>
+        <v>576</v>
       </c>
       <c r="N3" t="n">
-        <v>576</v>
+        <v>844</v>
       </c>
       <c r="O3" t="n">
-        <v>844</v>
+        <v>1025</v>
       </c>
       <c r="P3" t="n">
-        <v>1025</v>
+        <v>949</v>
       </c>
       <c r="Q3" t="n">
-        <v>949</v>
+        <v>832</v>
       </c>
       <c r="R3" t="n">
-        <v>832</v>
+        <v>572</v>
       </c>
       <c r="S3" t="n">
-        <v>572</v>
+        <v>346</v>
       </c>
       <c r="T3" t="n">
-        <v>346</v>
-      </c>
-      <c r="U3" t="n">
         <v>231</v>
       </c>
     </row>
@@ -688,19 +677,19 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F4" t="n">
+        <v>4</v>
+      </c>
+      <c r="G4" t="n">
+        <v>3</v>
+      </c>
+      <c r="H4" t="n">
         <v>2</v>
-      </c>
-      <c r="G4" t="n">
-        <v>4</v>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
       </c>
       <c r="I4" t="n">
         <v>2</v>
@@ -712,33 +701,30 @@
         <v>2</v>
       </c>
       <c r="L4" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="M4" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="N4" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="O4" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="P4" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q4" t="n">
         <v>15</v>
       </c>
-      <c r="Q4" t="n">
-        <v>16</v>
-      </c>
       <c r="R4" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="S4" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="T4" t="n">
-        <v>14</v>
-      </c>
-      <c r="U4" t="n">
         <v>5</v>
       </c>
     </row>
@@ -759,57 +745,54 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E5" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="F5" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="I5" t="n">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="J5" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="K5" t="n">
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="L5" t="n">
-        <v>82</v>
+        <v>177</v>
       </c>
       <c r="M5" t="n">
-        <v>177</v>
+        <v>344</v>
       </c>
       <c r="N5" t="n">
-        <v>344</v>
+        <v>493</v>
       </c>
       <c r="O5" t="n">
-        <v>493</v>
+        <v>696</v>
       </c>
       <c r="P5" t="n">
-        <v>696</v>
+        <v>687</v>
       </c>
       <c r="Q5" t="n">
-        <v>687</v>
+        <v>663</v>
       </c>
       <c r="R5" t="n">
-        <v>663</v>
+        <v>616</v>
       </c>
       <c r="S5" t="n">
-        <v>616</v>
+        <v>530</v>
       </c>
       <c r="T5" t="n">
-        <v>530</v>
-      </c>
-      <c r="U5" t="n">
         <v>415</v>
       </c>
     </row>
@@ -830,57 +813,54 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G6" t="n">
+        <v>2</v>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+      <c r="I6" t="n">
+        <v>9</v>
+      </c>
+      <c r="J6" t="n">
+        <v>20</v>
+      </c>
+      <c r="K6" t="n">
+        <v>34</v>
+      </c>
+      <c r="L6" t="n">
+        <v>47</v>
+      </c>
+      <c r="M6" t="n">
+        <v>54</v>
+      </c>
+      <c r="N6" t="n">
+        <v>53</v>
+      </c>
+      <c r="O6" t="n">
+        <v>36</v>
+      </c>
+      <c r="P6" t="n">
+        <v>31</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>28</v>
+      </c>
+      <c r="R6" t="n">
+        <v>21</v>
+      </c>
+      <c r="S6" t="n">
         <v>3</v>
       </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" t="n">
-        <v>6</v>
-      </c>
-      <c r="J6" t="n">
-        <v>9</v>
-      </c>
-      <c r="K6" t="n">
-        <v>20</v>
-      </c>
-      <c r="L6" t="n">
-        <v>34</v>
-      </c>
-      <c r="M6" t="n">
-        <v>47</v>
-      </c>
-      <c r="N6" t="n">
-        <v>54</v>
-      </c>
-      <c r="O6" t="n">
-        <v>53</v>
-      </c>
-      <c r="P6" t="n">
-        <v>36</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>31</v>
-      </c>
-      <c r="R6" t="n">
-        <v>28</v>
-      </c>
-      <c r="S6" t="n">
-        <v>21</v>
-      </c>
       <c r="T6" t="n">
-        <v>3</v>
-      </c>
-      <c r="U6" t="n">
         <v>11</v>
       </c>
     </row>
@@ -901,57 +881,54 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E7" t="n">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="F7" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G7" t="n">
         <v>30</v>
       </c>
       <c r="H7" t="n">
+        <v>31</v>
+      </c>
+      <c r="I7" t="n">
         <v>30</v>
       </c>
-      <c r="I7" t="n">
-        <v>31</v>
-      </c>
       <c r="J7" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="K7" t="n">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="L7" t="n">
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="M7" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="N7" t="n">
-        <v>140</v>
+        <v>259</v>
       </c>
       <c r="O7" t="n">
-        <v>259</v>
+        <v>405</v>
       </c>
       <c r="P7" t="n">
-        <v>405</v>
+        <v>561</v>
       </c>
       <c r="Q7" t="n">
-        <v>561</v>
+        <v>775</v>
       </c>
       <c r="R7" t="n">
-        <v>775</v>
+        <v>916</v>
       </c>
       <c r="S7" t="n">
-        <v>916</v>
+        <v>865</v>
       </c>
       <c r="T7" t="n">
-        <v>865</v>
-      </c>
-      <c r="U7" t="n">
         <v>797</v>
       </c>
     </row>
@@ -999,10 +976,10 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O8" t="n">
         <v>1</v>
@@ -1011,18 +988,15 @@
         <v>1</v>
       </c>
       <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
         <v>1</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>1</v>
       </c>
       <c r="T8" t="n">
-        <v>1</v>
-      </c>
-      <c r="U8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1067,10 +1041,10 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -1091,9 +1065,6 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1114,57 +1085,54 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E10" t="n">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F10" t="n">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="G10" t="n">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="H10" t="n">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="I10" t="n">
-        <v>110</v>
+        <v>176</v>
       </c>
       <c r="J10" t="n">
-        <v>176</v>
+        <v>267</v>
       </c>
       <c r="K10" t="n">
-        <v>267</v>
+        <v>474</v>
       </c>
       <c r="L10" t="n">
-        <v>474</v>
+        <v>913</v>
       </c>
       <c r="M10" t="n">
-        <v>913</v>
+        <v>1455</v>
       </c>
       <c r="N10" t="n">
-        <v>1455</v>
+        <v>1974</v>
       </c>
       <c r="O10" t="n">
-        <v>1974</v>
+        <v>2414</v>
       </c>
       <c r="P10" t="n">
-        <v>2414</v>
+        <v>2576</v>
       </c>
       <c r="Q10" t="n">
-        <v>2576</v>
+        <v>2689</v>
       </c>
       <c r="R10" t="n">
-        <v>2689</v>
+        <v>2307</v>
       </c>
       <c r="S10" t="n">
-        <v>2307</v>
+        <v>1863</v>
       </c>
       <c r="T10" t="n">
-        <v>1863</v>
-      </c>
-      <c r="U10" t="n">
         <v>1682</v>
       </c>
     </row>
@@ -1185,57 +1153,54 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>145</v>
+        <v>83</v>
       </c>
       <c r="E11" t="n">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="F11" t="n">
+        <v>40</v>
+      </c>
+      <c r="G11" t="n">
         <v>33</v>
       </c>
-      <c r="G11" t="n">
-        <v>40</v>
-      </c>
       <c r="H11" t="n">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="I11" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="J11" t="n">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="K11" t="n">
-        <v>69</v>
+        <v>115</v>
       </c>
       <c r="L11" t="n">
-        <v>115</v>
+        <v>244</v>
       </c>
       <c r="M11" t="n">
-        <v>244</v>
+        <v>368</v>
       </c>
       <c r="N11" t="n">
-        <v>368</v>
+        <v>473</v>
       </c>
       <c r="O11" t="n">
-        <v>473</v>
+        <v>737</v>
       </c>
       <c r="P11" t="n">
-        <v>737</v>
+        <v>863</v>
       </c>
       <c r="Q11" t="n">
-        <v>863</v>
+        <v>1125</v>
       </c>
       <c r="R11" t="n">
-        <v>1125</v>
+        <v>1109</v>
       </c>
       <c r="S11" t="n">
-        <v>1109</v>
+        <v>907</v>
       </c>
       <c r="T11" t="n">
-        <v>907</v>
-      </c>
-      <c r="U11" t="n">
         <v>873</v>
       </c>
     </row>
@@ -1256,57 +1221,54 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E12" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G12" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H12" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="I12" t="n">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="J12" t="n">
-        <v>47</v>
+        <v>130</v>
       </c>
       <c r="K12" t="n">
-        <v>130</v>
+        <v>262</v>
       </c>
       <c r="L12" t="n">
-        <v>262</v>
+        <v>371</v>
       </c>
       <c r="M12" t="n">
-        <v>371</v>
+        <v>409</v>
       </c>
       <c r="N12" t="n">
-        <v>409</v>
+        <v>470</v>
       </c>
       <c r="O12" t="n">
-        <v>470</v>
+        <v>330</v>
       </c>
       <c r="P12" t="n">
-        <v>330</v>
+        <v>279</v>
       </c>
       <c r="Q12" t="n">
-        <v>279</v>
+        <v>195</v>
       </c>
       <c r="R12" t="n">
-        <v>195</v>
+        <v>132</v>
       </c>
       <c r="S12" t="n">
-        <v>132</v>
+        <v>89</v>
       </c>
       <c r="T12" t="n">
-        <v>89</v>
-      </c>
-      <c r="U12" t="n">
         <v>64</v>
       </c>
     </row>
@@ -1333,51 +1295,48 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
         <v>2</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
       <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
         <v>2</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>2</v>
       </c>
       <c r="M13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O13" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P13" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="Q13" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="R13" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="S13" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="T13" t="n">
-        <v>9</v>
-      </c>
-      <c r="U13" t="n">
         <v>11</v>
       </c>
     </row>
@@ -1398,57 +1357,54 @@
         </is>
       </c>
       <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="n">
         <v>2</v>
       </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>1</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
       <c r="M14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O14" t="n">
+        <v>8</v>
+      </c>
+      <c r="P14" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>6</v>
+      </c>
+      <c r="R14" t="n">
+        <v>10</v>
+      </c>
+      <c r="S14" t="n">
         <v>3</v>
       </c>
-      <c r="P14" t="n">
-        <v>8</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>4</v>
-      </c>
-      <c r="R14" t="n">
-        <v>6</v>
-      </c>
-      <c r="S14" t="n">
-        <v>10</v>
-      </c>
       <c r="T14" t="n">
-        <v>3</v>
-      </c>
-      <c r="U14" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1469,57 +1425,54 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E15" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F15" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G15" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H15" t="n">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I15" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="J15" t="n">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="K15" t="n">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="L15" t="n">
-        <v>86</v>
+        <v>182</v>
       </c>
       <c r="M15" t="n">
-        <v>182</v>
+        <v>221</v>
       </c>
       <c r="N15" t="n">
-        <v>221</v>
+        <v>290</v>
       </c>
       <c r="O15" t="n">
+        <v>376</v>
+      </c>
+      <c r="P15" t="n">
+        <v>298</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>324</v>
+      </c>
+      <c r="R15" t="n">
         <v>290</v>
       </c>
-      <c r="P15" t="n">
-        <v>376</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>298</v>
-      </c>
-      <c r="R15" t="n">
-        <v>324</v>
-      </c>
       <c r="S15" t="n">
-        <v>290</v>
+        <v>228</v>
       </c>
       <c r="T15" t="n">
-        <v>228</v>
-      </c>
-      <c r="U15" t="n">
         <v>202</v>
       </c>
     </row>
@@ -1590,9 +1543,6 @@
       <c r="T16" t="n">
         <v>0</v>
       </c>
-      <c r="U16" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1611,10 +1561,10 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1142</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1659,9 +1609,6 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1682,57 +1629,54 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>483</v>
+        <v>110</v>
       </c>
       <c r="E18" t="n">
-        <v>110</v>
+        <v>24</v>
       </c>
       <c r="F18" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G18" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H18" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="I18" t="n">
+        <v>5</v>
+      </c>
+      <c r="J18" t="n">
         <v>4</v>
       </c>
-      <c r="J18" t="n">
-        <v>5</v>
-      </c>
       <c r="K18" t="n">
+        <v>8</v>
+      </c>
+      <c r="L18" t="n">
+        <v>3</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" t="n">
         <v>4</v>
       </c>
-      <c r="L18" t="n">
-        <v>8</v>
-      </c>
-      <c r="M18" t="n">
-        <v>3</v>
-      </c>
-      <c r="N18" t="n">
-        <v>2</v>
-      </c>
       <c r="O18" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P18" t="n">
         <v>1</v>
       </c>
       <c r="Q18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T18" t="n">
-        <v>2</v>
-      </c>
-      <c r="U18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1753,57 +1697,54 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="E19" t="n">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="F19" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="G19" t="n">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="H19" t="n">
+        <v>43</v>
+      </c>
+      <c r="I19" t="n">
         <v>35</v>
       </c>
-      <c r="I19" t="n">
-        <v>43</v>
-      </c>
       <c r="J19" t="n">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="K19" t="n">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="L19" t="n">
-        <v>50</v>
+        <v>101</v>
       </c>
       <c r="M19" t="n">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="N19" t="n">
-        <v>123</v>
+        <v>177</v>
       </c>
       <c r="O19" t="n">
-        <v>177</v>
+        <v>287</v>
       </c>
       <c r="P19" t="n">
-        <v>287</v>
+        <v>563</v>
       </c>
       <c r="Q19" t="n">
-        <v>563</v>
+        <v>993</v>
       </c>
       <c r="R19" t="n">
-        <v>993</v>
+        <v>1312</v>
       </c>
       <c r="S19" t="n">
-        <v>1312</v>
+        <v>1977</v>
       </c>
       <c r="T19" t="n">
-        <v>1977</v>
-      </c>
-      <c r="U19" t="n">
         <v>3245</v>
       </c>
     </row>
@@ -1824,57 +1765,54 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>107</v>
+        <v>406</v>
       </c>
       <c r="E20" t="n">
-        <v>406</v>
+        <v>259</v>
       </c>
       <c r="F20" t="n">
-        <v>259</v>
+        <v>732</v>
       </c>
       <c r="G20" t="n">
-        <v>732</v>
+        <v>1536</v>
       </c>
       <c r="H20" t="n">
-        <v>1536</v>
+        <v>1501</v>
       </c>
       <c r="I20" t="n">
-        <v>1501</v>
+        <v>1154</v>
       </c>
       <c r="J20" t="n">
-        <v>1154</v>
+        <v>1056</v>
       </c>
       <c r="K20" t="n">
-        <v>1056</v>
+        <v>972</v>
       </c>
       <c r="L20" t="n">
-        <v>972</v>
+        <v>1079</v>
       </c>
       <c r="M20" t="n">
-        <v>1079</v>
+        <v>998</v>
       </c>
       <c r="N20" t="n">
-        <v>998</v>
+        <v>902</v>
       </c>
       <c r="O20" t="n">
-        <v>902</v>
+        <v>764</v>
       </c>
       <c r="P20" t="n">
-        <v>764</v>
+        <v>666</v>
       </c>
       <c r="Q20" t="n">
-        <v>666</v>
+        <v>524</v>
       </c>
       <c r="R20" t="n">
-        <v>524</v>
+        <v>383</v>
       </c>
       <c r="S20" t="n">
-        <v>383</v>
+        <v>288</v>
       </c>
       <c r="T20" t="n">
-        <v>288</v>
-      </c>
-      <c r="U20" t="n">
         <v>220</v>
       </c>
     </row>
@@ -1910,31 +1848,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
         <v>1</v>
       </c>
       <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
         <v>1</v>
       </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
       <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
         <v>1</v>
       </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
       <c r="Q21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -1943,9 +1881,6 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
-      </c>
-      <c r="U21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1960,7 +1895,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V21"/>
+  <dimension ref="A1:U21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1986,95 +1921,90 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>1-4</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>1-4</t>
+          <t>5-9</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>5-9</t>
+          <t>10-14</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>10-14</t>
+          <t>15-19</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>15-19</t>
+          <t>20-24</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>20-24</t>
+          <t>25-29</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>25-29</t>
+          <t>30-34</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>30-34</t>
+          <t>35-39</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>35-39</t>
+          <t>40-44</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>40-44</t>
+          <t>45-49</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>45-49</t>
+          <t>50-54</t>
         </is>
       </c>
       <c r="O1" t="inlineStr">
         <is>
-          <t>50-54</t>
+          <t>55-59</t>
         </is>
       </c>
       <c r="P1" t="inlineStr">
         <is>
-          <t>55-59</t>
+          <t>60-64</t>
         </is>
       </c>
       <c r="Q1" t="inlineStr">
         <is>
-          <t>60-64</t>
+          <t>65-69</t>
         </is>
       </c>
       <c r="R1" t="inlineStr">
         <is>
-          <t>65-69</t>
+          <t>70-74</t>
         </is>
       </c>
       <c r="S1" t="inlineStr">
         <is>
-          <t>70-74</t>
+          <t>75-79</t>
         </is>
       </c>
       <c r="T1" t="inlineStr">
         <is>
-          <t>75-79</t>
+          <t>80-84</t>
         </is>
       </c>
       <c r="U1" t="inlineStr">
-        <is>
-          <t>80-84</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
         <is>
           <t>85-120</t>
         </is>
@@ -2097,60 +2027,57 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="E2" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F2" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="G2" t="n">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="H2" t="n">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I2" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J2" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K2" t="n">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="L2" t="n">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M2" t="n">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="N2" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="O2" t="n">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="P2" t="n">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="Q2" t="n">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="R2" t="n">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="S2" t="n">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="T2" t="n">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="U2" t="n">
-        <v>129</v>
-      </c>
-      <c r="V2" t="n">
         <v>160</v>
       </c>
     </row>
@@ -2171,60 +2098,57 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="E3" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F3" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G3" t="n">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="H3" t="n">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="I3" t="n">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="J3" t="n">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="K3" t="n">
-        <v>73</v>
+        <v>137</v>
       </c>
       <c r="L3" t="n">
-        <v>137</v>
+        <v>209</v>
       </c>
       <c r="M3" t="n">
-        <v>209</v>
+        <v>376</v>
       </c>
       <c r="N3" t="n">
-        <v>376</v>
+        <v>583</v>
       </c>
       <c r="O3" t="n">
-        <v>583</v>
+        <v>658</v>
       </c>
       <c r="P3" t="n">
-        <v>658</v>
+        <v>818</v>
       </c>
       <c r="Q3" t="n">
-        <v>818</v>
+        <v>652</v>
       </c>
       <c r="R3" t="n">
-        <v>652</v>
+        <v>622</v>
       </c>
       <c r="S3" t="n">
-        <v>622</v>
+        <v>531</v>
       </c>
       <c r="T3" t="n">
-        <v>531</v>
+        <v>332</v>
       </c>
       <c r="U3" t="n">
-        <v>332</v>
-      </c>
-      <c r="V3" t="n">
         <v>212</v>
       </c>
     </row>
@@ -2245,60 +2169,57 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E4" t="n">
         <v>3</v>
       </c>
       <c r="F4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I4" t="n">
         <v>4</v>
       </c>
       <c r="J4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K4" t="n">
+        <v>2</v>
+      </c>
+      <c r="L4" t="n">
         <v>3</v>
       </c>
-      <c r="L4" t="n">
-        <v>2</v>
-      </c>
       <c r="M4" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="N4" t="n">
+        <v>10</v>
+      </c>
+      <c r="O4" t="n">
+        <v>7</v>
+      </c>
+      <c r="P4" t="n">
+        <v>19</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>9</v>
+      </c>
+      <c r="R4" t="n">
+        <v>21</v>
+      </c>
+      <c r="S4" t="n">
+        <v>13</v>
+      </c>
+      <c r="T4" t="n">
         <v>12</v>
       </c>
-      <c r="O4" t="n">
-        <v>10</v>
-      </c>
-      <c r="P4" t="n">
-        <v>7</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>19</v>
-      </c>
-      <c r="R4" t="n">
-        <v>9</v>
-      </c>
-      <c r="S4" t="n">
-        <v>21</v>
-      </c>
-      <c r="T4" t="n">
-        <v>13</v>
-      </c>
       <c r="U4" t="n">
-        <v>12</v>
-      </c>
-      <c r="V4" t="n">
         <v>11</v>
       </c>
     </row>
@@ -2319,60 +2240,57 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G5" t="n">
+        <v>8</v>
+      </c>
+      <c r="H5" t="n">
         <v>4</v>
       </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
       <c r="I5" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="J5" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K5" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="L5" t="n">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="M5" t="n">
-        <v>52</v>
+        <v>103</v>
       </c>
       <c r="N5" t="n">
-        <v>103</v>
+        <v>190</v>
       </c>
       <c r="O5" t="n">
-        <v>190</v>
+        <v>332</v>
       </c>
       <c r="P5" t="n">
-        <v>332</v>
+        <v>541</v>
       </c>
       <c r="Q5" t="n">
-        <v>541</v>
+        <v>626</v>
       </c>
       <c r="R5" t="n">
-        <v>626</v>
+        <v>759</v>
       </c>
       <c r="S5" t="n">
-        <v>759</v>
+        <v>752</v>
       </c>
       <c r="T5" t="n">
-        <v>752</v>
+        <v>650</v>
       </c>
       <c r="U5" t="n">
-        <v>650</v>
-      </c>
-      <c r="V5" t="n">
         <v>583</v>
       </c>
     </row>
@@ -2393,60 +2311,57 @@
         </is>
       </c>
       <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
         <v>1</v>
       </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K6" t="n">
         <v>2</v>
       </c>
       <c r="L6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="n">
+        <v>6</v>
+      </c>
+      <c r="O6" t="n">
+        <v>10</v>
+      </c>
+      <c r="P6" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>10</v>
+      </c>
+      <c r="R6" t="n">
+        <v>11</v>
+      </c>
+      <c r="S6" t="n">
+        <v>7</v>
+      </c>
+      <c r="T6" t="n">
         <v>3</v>
       </c>
-      <c r="N6" t="n">
-        <v>5</v>
-      </c>
-      <c r="O6" t="n">
-        <v>6</v>
-      </c>
-      <c r="P6" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>12</v>
-      </c>
-      <c r="R6" t="n">
-        <v>10</v>
-      </c>
-      <c r="S6" t="n">
-        <v>11</v>
-      </c>
-      <c r="T6" t="n">
-        <v>7</v>
-      </c>
       <c r="U6" t="n">
-        <v>3</v>
-      </c>
-      <c r="V6" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2467,60 +2382,57 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="E7" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F7" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G7" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="H7" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I7" t="n">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="J7" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K7" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L7" t="n">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="M7" t="n">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="N7" t="n">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="O7" t="n">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="P7" t="n">
-        <v>91</v>
+        <v>229</v>
       </c>
       <c r="Q7" t="n">
-        <v>229</v>
+        <v>363</v>
       </c>
       <c r="R7" t="n">
-        <v>363</v>
+        <v>629</v>
       </c>
       <c r="S7" t="n">
-        <v>629</v>
+        <v>867</v>
       </c>
       <c r="T7" t="n">
-        <v>867</v>
+        <v>946</v>
       </c>
       <c r="U7" t="n">
-        <v>946</v>
-      </c>
-      <c r="V7" t="n">
         <v>1216</v>
       </c>
     </row>
@@ -2550,51 +2462,48 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
         <v>1</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
       <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
         <v>1</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>1</v>
       </c>
       <c r="S8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2668,9 +2577,6 @@
       <c r="U9" t="n">
         <v>0</v>
       </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2689,60 +2595,57 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="E10" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F10" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G10" t="n">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="H10" t="n">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="I10" t="n">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="J10" t="n">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="K10" t="n">
-        <v>97</v>
+        <v>145</v>
       </c>
       <c r="L10" t="n">
-        <v>145</v>
+        <v>194</v>
       </c>
       <c r="M10" t="n">
-        <v>194</v>
+        <v>313</v>
       </c>
       <c r="N10" t="n">
-        <v>313</v>
+        <v>503</v>
       </c>
       <c r="O10" t="n">
-        <v>503</v>
+        <v>748</v>
       </c>
       <c r="P10" t="n">
-        <v>748</v>
+        <v>1232</v>
       </c>
       <c r="Q10" t="n">
-        <v>1232</v>
+        <v>1548</v>
       </c>
       <c r="R10" t="n">
-        <v>1548</v>
+        <v>2062</v>
       </c>
       <c r="S10" t="n">
-        <v>2062</v>
+        <v>2172</v>
       </c>
       <c r="T10" t="n">
-        <v>2172</v>
+        <v>2099</v>
       </c>
       <c r="U10" t="n">
-        <v>2099</v>
-      </c>
-      <c r="V10" t="n">
         <v>2100</v>
       </c>
     </row>
@@ -2763,60 +2666,57 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>90</v>
+        <v>43</v>
       </c>
       <c r="E11" t="n">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="F11" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G11" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H11" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I11" t="n">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="J11" t="n">
+        <v>40</v>
+      </c>
+      <c r="K11" t="n">
+        <v>61</v>
+      </c>
+      <c r="L11" t="n">
         <v>45</v>
       </c>
-      <c r="K11" t="n">
-        <v>40</v>
-      </c>
-      <c r="L11" t="n">
-        <v>61</v>
-      </c>
       <c r="M11" t="n">
-        <v>45</v>
+        <v>98</v>
       </c>
       <c r="N11" t="n">
-        <v>98</v>
+        <v>140</v>
       </c>
       <c r="O11" t="n">
-        <v>140</v>
+        <v>225</v>
       </c>
       <c r="P11" t="n">
-        <v>225</v>
+        <v>349</v>
       </c>
       <c r="Q11" t="n">
-        <v>349</v>
+        <v>453</v>
       </c>
       <c r="R11" t="n">
-        <v>453</v>
+        <v>639</v>
       </c>
       <c r="S11" t="n">
-        <v>639</v>
+        <v>767</v>
       </c>
       <c r="T11" t="n">
-        <v>767</v>
+        <v>753</v>
       </c>
       <c r="U11" t="n">
-        <v>753</v>
-      </c>
-      <c r="V11" t="n">
         <v>944</v>
       </c>
     </row>
@@ -2837,60 +2737,57 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E12" t="n">
+        <v>10</v>
+      </c>
+      <c r="F12" t="n">
+        <v>7</v>
+      </c>
+      <c r="G12" t="n">
         <v>6</v>
       </c>
-      <c r="F12" t="n">
-        <v>10</v>
-      </c>
-      <c r="G12" t="n">
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+      <c r="I12" t="n">
         <v>7</v>
       </c>
-      <c r="H12" t="n">
-        <v>6</v>
-      </c>
-      <c r="I12" t="n">
-        <v>8</v>
-      </c>
       <c r="J12" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="K12" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L12" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M12" t="n">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="N12" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="O12" t="n">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="P12" t="n">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="Q12" t="n">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="R12" t="n">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="S12" t="n">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="T12" t="n">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="U12" t="n">
-        <v>60</v>
-      </c>
-      <c r="V12" t="n">
         <v>58</v>
       </c>
     </row>
@@ -2920,53 +2817,50 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2</v>
+      </c>
+      <c r="K13" t="n">
         <v>1</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
+      <c r="L13" t="n">
+        <v>3</v>
+      </c>
+      <c r="M13" t="n">
         <v>2</v>
       </c>
-      <c r="L13" t="n">
+      <c r="N13" t="n">
         <v>1</v>
       </c>
-      <c r="M13" t="n">
+      <c r="O13" t="n">
+        <v>4</v>
+      </c>
+      <c r="P13" t="n">
         <v>3</v>
       </c>
-      <c r="N13" t="n">
-        <v>2</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1</v>
-      </c>
-      <c r="P13" t="n">
-        <v>4</v>
-      </c>
       <c r="Q13" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="R13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S13" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="T13" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="U13" t="n">
         <v>8</v>
       </c>
-      <c r="V13" t="n">
-        <v>8</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2994,28 +2888,28 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
         <v>3</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1</v>
       </c>
       <c r="J14" t="n">
         <v>3</v>
       </c>
       <c r="K14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O14" t="n">
         <v>6</v>
@@ -3024,23 +2918,20 @@
         <v>6</v>
       </c>
       <c r="Q14" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="R14" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="S14" t="n">
         <v>16</v>
       </c>
       <c r="T14" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="U14" t="n">
         <v>10</v>
       </c>
-      <c r="V14" t="n">
-        <v>10</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3059,60 +2950,57 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E15" t="n">
+        <v>4</v>
+      </c>
+      <c r="F15" t="n">
         <v>6</v>
       </c>
-      <c r="F15" t="n">
-        <v>4</v>
-      </c>
       <c r="G15" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="H15" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I15" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J15" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="K15" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L15" t="n">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="M15" t="n">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="N15" t="n">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="O15" t="n">
-        <v>86</v>
+        <v>112</v>
       </c>
       <c r="P15" t="n">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="Q15" t="n">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="R15" t="n">
-        <v>142</v>
+        <v>195</v>
       </c>
       <c r="S15" t="n">
-        <v>195</v>
+        <v>143</v>
       </c>
       <c r="T15" t="n">
-        <v>143</v>
+        <v>113</v>
       </c>
       <c r="U15" t="n">
-        <v>113</v>
-      </c>
-      <c r="V15" t="n">
         <v>101</v>
       </c>
     </row>
@@ -3142,28 +3030,28 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I16" t="n">
+        <v>9</v>
+      </c>
+      <c r="J16" t="n">
+        <v>12</v>
+      </c>
+      <c r="K16" t="n">
+        <v>7</v>
+      </c>
+      <c r="L16" t="n">
         <v>4</v>
       </c>
-      <c r="J16" t="n">
-        <v>9</v>
-      </c>
-      <c r="K16" t="n">
-        <v>12</v>
-      </c>
-      <c r="L16" t="n">
-        <v>7</v>
-      </c>
       <c r="M16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -3184,9 +3072,6 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
-      </c>
-      <c r="V16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3207,7 +3092,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>931</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -3258,9 +3143,6 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3281,60 +3163,57 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>359</v>
+        <v>54</v>
       </c>
       <c r="E18" t="n">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="F18" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G18" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="H18" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="I18" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J18" t="n">
         <v>6</v>
       </c>
       <c r="K18" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L18" t="n">
         <v>5</v>
       </c>
       <c r="M18" t="n">
+        <v>10</v>
+      </c>
+      <c r="N18" t="n">
         <v>5</v>
       </c>
-      <c r="N18" t="n">
-        <v>10</v>
-      </c>
       <c r="O18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q18" t="n">
+        <v>1</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="n">
         <v>2</v>
       </c>
-      <c r="R18" t="n">
-        <v>1</v>
-      </c>
-      <c r="S18" t="n">
-        <v>0</v>
-      </c>
       <c r="T18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
-      </c>
-      <c r="V18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3355,60 +3234,57 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="E19" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F19" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G19" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="H19" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="I19" t="n">
         <v>22</v>
       </c>
       <c r="J19" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="K19" t="n">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="L19" t="n">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="M19" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="N19" t="n">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="O19" t="n">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="P19" t="n">
-        <v>97</v>
+        <v>181</v>
       </c>
       <c r="Q19" t="n">
-        <v>181</v>
+        <v>422</v>
       </c>
       <c r="R19" t="n">
-        <v>422</v>
+        <v>892</v>
       </c>
       <c r="S19" t="n">
-        <v>892</v>
+        <v>1455</v>
       </c>
       <c r="T19" t="n">
-        <v>1455</v>
+        <v>2379</v>
       </c>
       <c r="U19" t="n">
-        <v>2379</v>
-      </c>
-      <c r="V19" t="n">
         <v>4628</v>
       </c>
     </row>
@@ -3429,60 +3305,57 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>60</v>
+        <v>138</v>
       </c>
       <c r="E20" t="n">
-        <v>138</v>
+        <v>199</v>
       </c>
       <c r="F20" t="n">
-        <v>199</v>
+        <v>226</v>
       </c>
       <c r="G20" t="n">
-        <v>226</v>
+        <v>479</v>
       </c>
       <c r="H20" t="n">
-        <v>479</v>
+        <v>765</v>
       </c>
       <c r="I20" t="n">
-        <v>765</v>
+        <v>562</v>
       </c>
       <c r="J20" t="n">
-        <v>562</v>
+        <v>397</v>
       </c>
       <c r="K20" t="n">
-        <v>397</v>
+        <v>294</v>
       </c>
       <c r="L20" t="n">
-        <v>294</v>
+        <v>229</v>
       </c>
       <c r="M20" t="n">
-        <v>229</v>
+        <v>273</v>
       </c>
       <c r="N20" t="n">
-        <v>273</v>
+        <v>308</v>
       </c>
       <c r="O20" t="n">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="P20" t="n">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="Q20" t="n">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="R20" t="n">
-        <v>275</v>
+        <v>230</v>
       </c>
       <c r="S20" t="n">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="T20" t="n">
-        <v>223</v>
+        <v>193</v>
       </c>
       <c r="U20" t="n">
-        <v>193</v>
-      </c>
-      <c r="V20" t="n">
         <v>171</v>
       </c>
     </row>
@@ -3554,9 +3427,6 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
-      </c>
-      <c r="V21" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/norm.cause-of-death-2010.xlsx
+++ b/data/norm.cause-of-death-2010.xlsx
@@ -673,7 +673,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Blood / Immune</t>
+          <t>Blood</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -741,7 +741,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Metabolic / Nutritional</t>
+          <t>Metabolic</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -1489,7 +1489,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Pregnancy / Childbirth</t>
+          <t>Pregnancy</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -2165,7 +2165,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Blood / Immune</t>
+          <t>Blood</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -2236,7 +2236,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Metabolic / Nutritional</t>
+          <t>Metabolic</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -3017,7 +3017,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Pregnancy / Childbirth</t>
+          <t>Pregnancy</t>
         </is>
       </c>
       <c r="D16" t="n">
